--- a/Team-Data/2013-14/3-26-2013-14.xlsx
+++ b/Team-Data/2013-14/3-26-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" t="n">
-        <v>0.443</v>
+        <v>0.449</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
@@ -687,7 +754,7 @@
         <v>81.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
         <v>9.6</v>
@@ -696,31 +763,31 @@
         <v>25.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O2" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P2" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T2" t="n">
         <v>39.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="V2" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
@@ -735,16 +802,16 @@
         <v>19.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -774,22 +841,22 @@
         <v>2</v>
       </c>
       <c r="AN2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>7</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -807,7 +874,7 @@
         <v>25</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -816,10 +883,10 @@
         <v>22</v>
       </c>
       <c r="BB2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
         <v>23</v>
       </c>
       <c r="F3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" t="n">
-        <v>0.324</v>
+        <v>0.329</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,7 +933,7 @@
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>0.432</v>
@@ -878,7 +945,7 @@
         <v>20.2</v>
       </c>
       <c r="N3" t="n">
-        <v>0.331</v>
+        <v>0.33</v>
       </c>
       <c r="O3" t="n">
         <v>16.3</v>
@@ -893,40 +960,40 @@
         <v>12.1</v>
       </c>
       <c r="S3" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T3" t="n">
-        <v>43.1</v>
+        <v>43.2</v>
       </c>
       <c r="U3" t="n">
         <v>20.7</v>
       </c>
       <c r="V3" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
         <v>21.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB3" t="n">
         <v>95.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -971,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="AS3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV3" t="n">
         <v>22</v>
       </c>
-      <c r="AT3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AU3" t="n">
+      <c r="AW3" t="n">
         <v>25</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>23</v>
       </c>
       <c r="AX3" t="n">
         <v>21</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -1030,19 +1097,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" t="n">
-        <v>0.529</v>
+        <v>0.536</v>
       </c>
       <c r="H4" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
         <v>35.5</v>
@@ -1054,40 +1121,40 @@
         <v>0.454</v>
       </c>
       <c r="L4" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.37</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S4" t="n">
         <v>29.5</v>
       </c>
       <c r="T4" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X4" t="n">
         <v>3.9</v>
@@ -1102,13 +1169,13 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>98.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC4" t="n">
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1120,7 +1187,7 @@
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1132,22 +1199,22 @@
         <v>13</v>
       </c>
       <c r="AL4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM4" t="n">
         <v>11</v>
       </c>
       <c r="AN4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR4" t="n">
         <v>28</v>
@@ -1159,10 +1226,10 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>7</v>
@@ -1177,13 +1244,13 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="n">
         <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.486</v>
+        <v>0.479</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="J5" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
@@ -1242,10 +1309,10 @@
         <v>17.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.352</v>
+        <v>0.351</v>
       </c>
       <c r="O5" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P5" t="n">
         <v>24.2</v>
@@ -1260,37 +1327,37 @@
         <v>32.9</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
         <v>12.4</v>
       </c>
       <c r="W5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
         <v>5.2</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.3</v>
+        <v>96</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1311,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
@@ -1350,7 +1417,7 @@
         <v>29</v>
       </c>
       <c r="AX5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY5" t="n">
         <v>20</v>
@@ -1359,13 +1426,13 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB5" t="n">
         <v>25</v>
       </c>
       <c r="BC5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1508,13 +1575,13 @@
         <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
       </c>
       <c r="AR6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1526,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
         <v>44</v>
       </c>
       <c r="G7" t="n">
-        <v>0.397</v>
+        <v>0.389</v>
       </c>
       <c r="H7" t="n">
         <v>48.6</v>
@@ -1603,19 +1670,19 @@
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
         <v>0.357</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P7" t="n">
         <v>22.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.747</v>
+        <v>0.75</v>
       </c>
       <c r="R7" t="n">
         <v>12.2</v>
@@ -1627,22 +1694,22 @@
         <v>44.2</v>
       </c>
       <c r="U7" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V7" t="n">
         <v>14.5</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X7" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y7" t="n">
         <v>5.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA7" t="n">
         <v>19.6</v>
@@ -1651,7 +1718,7 @@
         <v>97.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1693,7 +1760,7 @@
         <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR7" t="n">
         <v>5</v>
@@ -1705,13 +1772,13 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
       </c>
       <c r="AW7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1902,7 +1969,7 @@
         <v>4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>20</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
         <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="n">
-        <v>0.444</v>
+        <v>0.451</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1967,22 +2034,22 @@
         <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N9" t="n">
         <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
         <v>26.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.719</v>
+        <v>0.718</v>
       </c>
       <c r="R9" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
         <v>33</v>
@@ -1994,10 +2061,10 @@
         <v>22.3</v>
       </c>
       <c r="V9" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X9" t="n">
         <v>5.5</v>
@@ -2018,7 +2085,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2042,10 +2109,10 @@
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN9" t="n">
         <v>15</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>11</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2084,7 +2151,7 @@
         <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2093,7 +2160,7 @@
         <v>9</v>
       </c>
       <c r="BC9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
         <v>26</v>
       </c>
       <c r="F10" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.366</v>
+        <v>0.371</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2146,73 +2213,73 @@
         <v>0.449</v>
       </c>
       <c r="L10" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.32</v>
+        <v>0.318</v>
       </c>
       <c r="O10" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="P10" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.665</v>
+        <v>0.666</v>
       </c>
       <c r="R10" t="n">
         <v>14.3</v>
       </c>
       <c r="S10" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T10" t="n">
-        <v>45.3</v>
+        <v>45.2</v>
       </c>
       <c r="U10" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V10" t="n">
         <v>14.8</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X10" t="n">
         <v>5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
         <v>20.3</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC10" t="n">
         <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>5</v>
@@ -2224,10 +2291,10 @@
         <v>15</v>
       </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN10" t="n">
         <v>29</v>
@@ -2248,28 +2315,28 @@
         <v>23</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB10" t="n">
         <v>16</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
@@ -2406,7 +2473,7 @@
         <v>10</v>
       </c>
       <c r="AL11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM11" t="n">
         <v>7</v>
@@ -2424,7 +2491,7 @@
         <v>18</v>
       </c>
       <c r="AR11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
@@ -2442,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -2564,16 +2631,16 @@
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
       </c>
       <c r="AF12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2621,7 +2688,7 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -2668,70 +2735,70 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" t="n">
         <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>0.722</v>
+        <v>0.718</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J13" t="n">
         <v>80.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L13" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="N13" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O13" t="n">
         <v>18.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q13" t="n">
         <v>0.785</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S13" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="T13" t="n">
-        <v>45.2</v>
+        <v>45.3</v>
       </c>
       <c r="U13" t="n">
         <v>20.1</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z13" t="n">
         <v>20.3</v>
@@ -2740,16 +2807,16 @@
         <v>22</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF13" t="n">
         <v>3</v>
@@ -2758,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2773,7 +2840,7 @@
         <v>24</v>
       </c>
       <c r="AM13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN13" t="n">
         <v>23</v>
@@ -2794,25 +2861,25 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA13" t="n">
         <v>6</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" t="n">
         <v>50</v>
       </c>
       <c r="F14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.694</v>
+        <v>0.704</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
@@ -2868,19 +2935,19 @@
         <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.476</v>
       </c>
       <c r="L14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O14" t="n">
         <v>21</v>
@@ -2889,13 +2956,13 @@
         <v>28.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.728</v>
+        <v>0.73</v>
       </c>
       <c r="R14" t="n">
         <v>10.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
         <v>42.9</v>
@@ -2910,25 +2977,25 @@
         <v>8.6</v>
       </c>
       <c r="X14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Z14" t="n">
         <v>21.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.4</v>
+        <v>107.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2943,7 +3010,7 @@
         <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2955,10 +3022,10 @@
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
@@ -2985,10 +3052,10 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -2997,7 +3064,7 @@
         <v>20</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
@@ -3140,16 +3207,16 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>19</v>
       </c>
       <c r="AQ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>26</v>
@@ -3170,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -3214,22 +3281,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
         <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>0.606</v>
+        <v>0.6</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7</v>
+        <v>37.8</v>
       </c>
       <c r="J16" t="n">
         <v>81.59999999999999</v>
@@ -3238,22 +3305,22 @@
         <v>0.463</v>
       </c>
       <c r="L16" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.355</v>
+        <v>0.354</v>
       </c>
       <c r="O16" t="n">
         <v>15.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="R16" t="n">
         <v>11.4</v>
@@ -3277,25 +3344,25 @@
         <v>4.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z16" t="n">
         <v>19.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.59999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="AC16" t="n">
         <v>1.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
@@ -3304,7 +3371,7 @@
         <v>9</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>16</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR16" t="n">
         <v>13</v>
@@ -3340,7 +3407,7 @@
         <v>21</v>
       </c>
       <c r="AT16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" t="n">
         <v>48</v>
       </c>
       <c r="F17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.696</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>76.8</v>
+        <v>77</v>
       </c>
       <c r="K17" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="L17" t="n">
         <v>8</v>
@@ -3426,40 +3493,40 @@
         <v>21.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
         <v>7.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="T17" t="n">
         <v>36.7</v>
       </c>
       <c r="U17" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X17" t="n">
         <v>4.6</v>
       </c>
       <c r="Y17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Z17" t="n">
         <v>19.9</v>
@@ -3468,13 +3535,13 @@
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.1</v>
+        <v>103.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3504,16 +3571,16 @@
         <v>16</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
       </c>
       <c r="AP17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
         <v>30</v>
@@ -3528,13 +3595,13 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3668,13 +3735,13 @@
         <v>30</v>
       </c>
       <c r="AH18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3692,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
         <v>19</v>
@@ -3725,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="n">
         <v>35</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J19" t="n">
         <v>87.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L19" t="n">
         <v>7.5</v>
@@ -3790,61 +3857,61 @@
         <v>21.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O19" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P19" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.78</v>
       </c>
       <c r="R19" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S19" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T19" t="n">
         <v>44.9</v>
       </c>
       <c r="U19" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X19" t="n">
         <v>3.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z19" t="n">
         <v>18.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB19" t="n">
         <v>106.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
@@ -3877,13 +3944,13 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AT19" t="n">
         <v>7</v>
@@ -3895,7 +3962,7 @@
         <v>3</v>
       </c>
       <c r="AW19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX19" t="n">
         <v>30</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n">
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>0.437</v>
+        <v>0.429</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
@@ -3960,7 +4027,7 @@
         <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K20" t="n">
         <v>0.46</v>
@@ -3972,10 +4039,10 @@
         <v>15.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.371</v>
+        <v>0.373</v>
       </c>
       <c r="O20" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P20" t="n">
         <v>23.4</v>
@@ -3984,13 +4051,13 @@
         <v>0.771</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T20" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
@@ -3999,10 +4066,10 @@
         <v>13.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y20" t="n">
         <v>6</v>
@@ -4014,19 +4081,19 @@
         <v>20.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG20" t="n">
         <v>20</v>
@@ -4038,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4050,19 +4117,19 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ20" t="n">
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4074,7 +4141,7 @@
         <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4095,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -4124,55 +4191,55 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" t="n">
         <v>42</v>
       </c>
       <c r="G21" t="n">
-        <v>0.417</v>
+        <v>0.408</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J21" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K21" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L21" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M21" t="n">
         <v>24.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O21" t="n">
         <v>15.3</v>
       </c>
       <c r="P21" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
         <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U21" t="n">
         <v>20.4</v>
@@ -4181,28 +4248,28 @@
         <v>13</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X21" t="n">
         <v>4.6</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
         <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4214,31 +4281,31 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK21" t="n">
         <v>18</v>
       </c>
-      <c r="AK21" t="n">
-        <v>17</v>
-      </c>
       <c r="AL21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM21" t="n">
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>17</v>
@@ -4262,7 +4329,7 @@
         <v>16</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY21" t="n">
         <v>3</v>
@@ -4274,7 +4341,7 @@
         <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,10 +4466,10 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4420,19 +4487,19 @@
         <v>5</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>13</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4614,7 +4681,7 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
         <v>22</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -4784,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="AP24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4820,7 +4887,7 @@
         <v>13</v>
       </c>
       <c r="BB24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F25" t="n">
         <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.597</v>
+        <v>0.592</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,31 +4937,31 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83.40000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L25" t="n">
         <v>9.4</v>
       </c>
       <c r="M25" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P25" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R25" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S25" t="n">
         <v>31.7</v>
@@ -4903,7 +4970,7 @@
         <v>43</v>
       </c>
       <c r="U25" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V25" t="n">
         <v>15.5</v>
@@ -4915,31 +4982,31 @@
         <v>4.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z25" t="n">
         <v>22.2</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.4</v>
+        <v>105.5</v>
       </c>
       <c r="AC25" t="n">
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>25</v>
@@ -4960,13 +5027,13 @@
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
       </c>
       <c r="AP25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ25" t="n">
         <v>16</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS26" t="n">
         <v>6</v>
@@ -5166,13 +5233,13 @@
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5181,7 +5248,7 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.352</v>
+        <v>0.357</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,7 +5301,7 @@
         <v>37</v>
       </c>
       <c r="J27" t="n">
-        <v>82.5</v>
+        <v>82.7</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
@@ -5243,28 +5310,28 @@
         <v>6.2</v>
       </c>
       <c r="M27" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N27" t="n">
         <v>0.335</v>
       </c>
       <c r="O27" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P27" t="n">
-        <v>27.6</v>
+        <v>27.5</v>
       </c>
       <c r="Q27" t="n">
         <v>0.765</v>
       </c>
       <c r="R27" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S27" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T27" t="n">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="U27" t="n">
         <v>19</v>
@@ -5285,16 +5352,16 @@
         <v>22.9</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5339,7 +5406,7 @@
         <v>6</v>
       </c>
       <c r="AS27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
         <v>10</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW27" t="n">
         <v>20</v>
@@ -5360,13 +5427,13 @@
         <v>23</v>
       </c>
       <c r="AZ27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>22</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.775</v>
+        <v>0.771</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
@@ -5416,7 +5483,7 @@
         <v>40.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.488</v>
@@ -5431,16 +5498,16 @@
         <v>0.398</v>
       </c>
       <c r="O28" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P28" t="n">
         <v>20.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.785</v>
+        <v>0.787</v>
       </c>
       <c r="R28" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S28" t="n">
         <v>34.1</v>
@@ -5449,13 +5516,13 @@
         <v>43.2</v>
       </c>
       <c r="U28" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="V28" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.1</v>
@@ -5470,13 +5537,13 @@
         <v>19.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.4</v>
+        <v>105.3</v>
       </c>
       <c r="AC28" t="n">
         <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,13 +5561,13 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM28" t="n">
         <v>17</v>
@@ -5512,7 +5579,7 @@
         <v>27</v>
       </c>
       <c r="AP28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5524,22 +5591,22 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY28" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F29" t="n">
         <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5610,28 +5677,28 @@
         <v>23</v>
       </c>
       <c r="N29" t="n">
-        <v>0.369</v>
+        <v>0.367</v>
       </c>
       <c r="O29" t="n">
         <v>19.5</v>
       </c>
       <c r="P29" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R29" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S29" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T29" t="n">
         <v>43.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V29" t="n">
         <v>14.2</v>
@@ -5649,25 +5716,25 @@
         <v>23.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB29" t="n">
         <v>100.9</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
       </c>
       <c r="AG29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5682,13 +5749,13 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>6</v>
@@ -5703,16 +5770,16 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU29" t="n">
         <v>17</v>
       </c>
       <c r="AV29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW29" t="n">
         <v>23</v>
@@ -5721,7 +5788,7 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>30</v>
@@ -5730,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BC29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -5762,25 +5829,25 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="n">
         <v>23</v>
       </c>
       <c r="F30" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G30" t="n">
-        <v>0.319</v>
+        <v>0.324</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
       </c>
       <c r="I30" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J30" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K30" t="n">
         <v>0.442</v>
@@ -5801,16 +5868,16 @@
         <v>21.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R30" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S30" t="n">
         <v>30.3</v>
       </c>
       <c r="T30" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U30" t="n">
         <v>19.9</v>
@@ -5834,13 +5901,13 @@
         <v>20.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>94.40000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="AC30" t="n">
         <v>-6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>25</v>
       </c>
       <c r="AK30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>22</v>
@@ -5870,13 +5937,13 @@
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO30" t="n">
         <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
         <v>23</v>
@@ -5888,13 +5955,13 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
       </c>
       <c r="AV30" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW30" t="n">
         <v>27</v>
@@ -5903,13 +5970,13 @@
         <v>20</v>
       </c>
       <c r="AY30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ30" t="n">
         <v>17</v>
       </c>
       <c r="BA30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
         <v>36</v>
       </c>
       <c r="F31" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.507</v>
+        <v>0.514</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
@@ -5971,31 +6038,31 @@
         <v>8.1</v>
       </c>
       <c r="M31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O31" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="P31" t="n">
         <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.732</v>
+        <v>0.734</v>
       </c>
       <c r="R31" t="n">
         <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T31" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U31" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V31" t="n">
         <v>14.8</v>
@@ -6004,25 +6071,25 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y31" t="n">
         <v>4</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6052,7 +6119,7 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
@@ -6067,22 +6134,22 @@
         <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT31" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AU31" t="n">
         <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-26-2013-14</t>
+          <t>2014-03-26</t>
         </is>
       </c>
     </row>
